--- a/AE2 report/Test cases.xlsx
+++ b/AE2 report/Test cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="10455" windowHeight="7935" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="10455" windowHeight="7935" firstSheet="14" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Test case1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="227">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -727,6 +727,9 @@
   </si>
   <si>
     <t>Delete admin account and open admin login page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
   </si>
 </sst>
 </file>
@@ -874,6 +877,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -888,12 +897,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1189,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1215,14 +1218,14 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -1290,160 +1293,110 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5">
-        <v>3</v>
-      </c>
-      <c r="D9" s="5">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>31</v>
+    <row r="9" spans="1:9" ht="30">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45">
       <c r="A12" s="5">
-        <v>6</v>
-      </c>
-      <c r="D12" s="5">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30">
-      <c r="A14" s="8" t="s">
-        <v>13</v>
+      <c r="A14" s="5">
+        <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="45">
-      <c r="A17" s="5">
-        <v>1</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30">
-      <c r="A18" s="5">
-        <v>2</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30">
-      <c r="A19" s="5">
-        <v>3</v>
-      </c>
-      <c r="B19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45">
-      <c r="A20" s="5">
-        <v>4</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45">
+      <c r="A15" s="5">
+        <v>4</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>30</v>
+      <c r="D15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1453,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:K23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1476,16 +1429,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1781,16 +1734,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -2087,16 +2040,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -2280,7 +2233,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="30">
-      <c r="A19" s="34">
+      <c r="A19" s="36">
         <v>3</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -2297,11 +2250,11 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="5" t="s">
         <v>29</v>
       </c>
@@ -2310,7 +2263,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="34"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="11" t="s">
         <v>62</v>
       </c>
@@ -2395,16 +2348,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -2589,7 +2542,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="34">
+      <c r="A19" s="36">
         <v>3</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -2606,11 +2559,11 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="22" t="s">
         <v>29</v>
       </c>
@@ -2619,7 +2572,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="75" customHeight="1">
-      <c r="A21" s="34"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="11" t="s">
         <v>62</v>
       </c>
@@ -2690,7 +2643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -2714,16 +2667,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -3019,16 +2972,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -3325,16 +3278,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -3469,11 +3422,11 @@
       <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
       <c r="E16" s="18" t="s">
         <v>17</v>
       </c>
@@ -3491,11 +3444,11 @@
       <c r="A17" s="22">
         <v>1</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="20" t="s">
         <v>25</v>
       </c>
@@ -3510,11 +3463,11 @@
       <c r="A18" s="22">
         <v>2</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="20" t="s">
         <v>61</v>
       </c>
@@ -3529,11 +3482,11 @@
       <c r="A19" s="22">
         <v>3</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="20" t="s">
         <v>63</v>
       </c>
@@ -3545,13 +3498,13 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="45">
-      <c r="A20" s="34">
-        <v>4</v>
-      </c>
-      <c r="B20" s="33" t="s">
+      <c r="A20" s="36">
+        <v>4</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="38" t="s">
         <v>105</v>
       </c>
       <c r="D20" s="20" t="s">
@@ -3568,9 +3521,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="30">
-      <c r="A21" s="34"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="20" t="s">
         <v>126</v>
       </c>
@@ -3612,7 +3565,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K20"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3637,16 +3590,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -3891,7 +3844,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K20"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3914,16 +3867,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -4170,16 +4123,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -4427,8 +4380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4451,16 +4404,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -4713,16 +4666,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -5004,7 +4957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -5028,16 +4981,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -5360,16 +5313,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -5634,16 +5587,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -5871,16 +5824,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -5944,7 +5897,7 @@
       <c r="D7" s="30">
         <v>1</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="34" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5966,7 +5919,7 @@
       <c r="D9" s="30">
         <v>3</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="33" t="s">
         <v>167</v>
       </c>
     </row>
@@ -6184,16 +6137,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -6497,16 +6450,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -6809,16 +6762,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -7122,16 +7075,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -7435,16 +7388,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -7748,16 +7701,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -8010,16 +7963,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -8303,16 +8256,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -8584,16 +8537,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -8657,7 +8610,7 @@
       <c r="D7" s="30">
         <v>1</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="34" t="s">
         <v>166</v>
       </c>
     </row>
@@ -8897,16 +8850,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -9192,16 +9145,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -9480,16 +9433,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -9738,16 +9691,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -9995,7 +9948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -10019,16 +9972,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -10281,16 +10234,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -10519,7 +10472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -10543,16 +10496,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -10781,7 +10734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -10804,16 +10757,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -11066,16 +11019,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -11371,16 +11324,16 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
